--- a/output/2017-07-01 to 2018-02-15.xlsx
+++ b/output/2017-07-01 to 2018-02-15.xlsx
@@ -160,7 +160,7 @@
     <t>['cfop_ANSELL']</t>
   </si>
   <si>
-    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
